--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,55 +43,64 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>less</t>
   </si>
   <si>
     <t>cheap</t>
@@ -103,81 +112,63 @@
     <t>ok</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>bit</t>
+    <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>product</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -187,70 +178,64 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>classic</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>thank</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>easy</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -614,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -733,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K4">
         <v>0.8888888888888888</v>
@@ -783,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8275862068965517</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>0.8494623655913979</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,37 +818,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7746478873239436</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C6">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>54</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D6">
-        <v>55</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K6">
-        <v>0.8461538461538461</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.703125</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6881720430107527</v>
+        <v>0.6875</v>
       </c>
       <c r="C8">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>0.6792452830188679</v>
+        <v>0.71875</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6428571428571429</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K9">
-        <v>0.5667144906743186</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L9">
-        <v>395</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>395</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>302</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6283783783783784</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C10">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K10">
-        <v>0.5507246376811594</v>
+        <v>0.5624103299856528</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>392</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>392</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6116504854368932</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C11">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K11">
-        <v>0.5103734439834025</v>
+        <v>0.5145228215767634</v>
       </c>
       <c r="L11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6052631578947368</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K12">
-        <v>0.4614754098360656</v>
+        <v>0.4581967213114754</v>
       </c>
       <c r="L12">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M12">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K13">
-        <v>0.3915343915343915</v>
+        <v>0.3669724770642202</v>
       </c>
       <c r="L13">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="M13">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>115</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5714285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C14">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K14">
-        <v>0.3700305810397553</v>
+        <v>0.35</v>
       </c>
       <c r="L14">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>206</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5208333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4888888888888889</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,16 +1339,16 @@
         <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K16">
-        <v>0.3313253012048193</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L16">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M16">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4869565217391305</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C17">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D17">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K17">
-        <v>0.1958041958041958</v>
+        <v>0.2109375</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4578313253012048</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K18">
-        <v>0.1953125</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,13 +1468,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4259259259259259</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1501,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K19">
-        <v>0.1935483870967742</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,13 +1518,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.421875</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1551,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K20">
-        <v>0.1904761904761905</v>
+        <v>0.176706827309237</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1575,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>102</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1583,13 +1568,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4028436018957346</v>
+        <v>0.4</v>
       </c>
       <c r="C21">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1601,31 +1586,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K21">
-        <v>0.1887550200803213</v>
+        <v>0.156140350877193</v>
       </c>
       <c r="L21">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="M21">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>202</v>
+        <v>962</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,13 +1618,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3809523809523809</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1651,31 +1636,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K22">
-        <v>0.176</v>
+        <v>0.07532467532467532</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>103</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,13 +1668,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.375</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C23">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1701,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K23">
-        <v>0.1428571428571428</v>
+        <v>0.06963788300835655</v>
       </c>
       <c r="L23">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1725,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>978</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1733,13 +1718,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3650793650793651</v>
+        <v>0.3601895734597156</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1751,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K24">
-        <v>0.1016042780748663</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1775,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1783,13 +1768,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3622047244094488</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1801,31 +1786,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K25">
-        <v>0.07407407407407407</v>
+        <v>0.04005340453938585</v>
       </c>
       <c r="L25">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>1425</v>
+        <v>719</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,13 +1818,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3473684210526316</v>
+        <v>0.3359375</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1851,31 +1836,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>62</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K26">
-        <v>0.07262569832402235</v>
-      </c>
-      <c r="L26">
-        <v>26</v>
-      </c>
-      <c r="M26">
-        <v>27</v>
-      </c>
-      <c r="N26">
-        <v>0.96</v>
-      </c>
-      <c r="O26">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>332</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1883,13 +1844,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3146067415730337</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1901,31 +1862,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>61</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27">
-        <v>0.044</v>
-      </c>
-      <c r="L27">
-        <v>33</v>
-      </c>
-      <c r="M27">
-        <v>35</v>
-      </c>
-      <c r="N27">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O27">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>717</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1933,13 +1870,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2722772277227723</v>
+        <v>0.2623762376237624</v>
       </c>
       <c r="C28">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1951,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1959,13 +1896,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2244897959183673</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1977,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1985,13 +1922,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2061855670103093</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2003,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2011,13 +1948,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.188034188034188</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2029,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>95</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2037,13 +1974,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1666666666666667</v>
+        <v>0.172106824925816</v>
       </c>
       <c r="C32">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D32">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2055,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>230</v>
+        <v>558</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2063,13 +2000,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1613924050632911</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C33">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D33">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2081,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2089,25 +2026,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1613832853025937</v>
+        <v>0.14</v>
       </c>
       <c r="C34">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E34">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>291</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2115,13 +2052,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1588785046728972</v>
+        <v>0.1360759493670886</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2133,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>180</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2141,25 +2078,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1571428571428571</v>
+        <v>0.1268011527377522</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>118</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2167,13 +2104,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1543026706231454</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="C37">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D37">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2185,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>570</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2193,13 +2130,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.135</v>
+        <v>0.1167400881057269</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2211,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>173</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2219,13 +2156,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.129746835443038</v>
+        <v>0.09737827715355805</v>
       </c>
       <c r="C39">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D39">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2237,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>275</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2245,13 +2182,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1235955056179775</v>
+        <v>0.07572383073496659</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2263,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>234</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2271,13 +2208,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1211453744493392</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="C41">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2289,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>399</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2297,13 +2234,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1048387096774194</v>
+        <v>0.06760563380281689</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2315,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>222</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2323,25 +2260,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.07042253521126761</v>
+        <v>0.05930807248764415</v>
       </c>
       <c r="C43">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>330</v>
+        <v>571</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2349,25 +2286,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.06919642857142858</v>
+        <v>0.0432020330368488</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E44">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="F44">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>417</v>
+        <v>753</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2375,103 +2312,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.06575342465753424</v>
+        <v>0.03686635944700461</v>
       </c>
       <c r="C45">
         <v>24</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.05766062602965404</v>
-      </c>
-      <c r="C46">
-        <v>35</v>
-      </c>
-      <c r="D46">
-        <v>36</v>
-      </c>
-      <c r="E46">
-        <v>0.03</v>
-      </c>
-      <c r="F46">
-        <v>0.97</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.04128440366972477</v>
-      </c>
-      <c r="C47">
-        <v>27</v>
-      </c>
-      <c r="D47">
-        <v>28</v>
-      </c>
-      <c r="E47">
-        <v>0.04</v>
-      </c>
-      <c r="F47">
-        <v>0.96</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
         <v>627</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.03422053231939164</v>
-      </c>
-      <c r="C48">
-        <v>27</v>
-      </c>
-      <c r="D48">
-        <v>32</v>
-      </c>
-      <c r="E48">
-        <v>0.16</v>
-      </c>
-      <c r="F48">
-        <v>0.84</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>762</v>
       </c>
     </row>
   </sheetData>
